--- a/biology/Botanique/Rosarum_Monographia/Rosarum_Monographia.xlsx
+++ b/biology/Botanique/Rosarum_Monographia/Rosarum_Monographia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Rosarum Monographia (abrégé en Ros. Monogr.)[1] est un livre illustré et descriptif de botanique, écrit par le naturaliste et botaniste britannique John Lindley, publié à Londres en  1820, sous le nom de Rosarum Monographia ; or, a Botanical History of Roses. To which is Added, an Appendix, for the Use of Cultivators, in which the Most Remarkable Garden Varieties are Systematically Arranged. With Nineteen Plates. 
-Lindley y décrit soixante dix-huit espèces, ainsi que des sous-espèces, tandis que treize espèces sont illustrées[2].
+Rosarum Monographia (abrégé en Ros. Monogr.) est un livre illustré et descriptif de botanique, écrit par le naturaliste et botaniste britannique John Lindley, publié à Londres en  1820, sous le nom de Rosarum Monographia ; or, a Botanical History of Roses. To which is Added, an Appendix, for the Use of Cultivators, in which the Most Remarkable Garden Varieties are Systematically Arranged. With Nineteen Plates. 
+Lindley y décrit soixante dix-huit espèces, ainsi que des sous-espèces, tandis que treize espèces sont illustrées.
 Une nouvelle édition est publiée en 1830.
 </t>
         </is>
